--- a/06-03-2023/data/output/xlsx/sample_0/11_causality.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/11_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="145">
   <si>
     <t>name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -136,6 +133,30 @@
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
@@ -172,6 +193,18 @@
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_equals__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__16</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
@@ -220,6 +253,9 @@
     <t>num_of_mults_and_divs__15</t>
   </si>
   <si>
+    <t>num_of_mults_and_divs__16</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
@@ -250,9 +286,6 @@
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
@@ -292,21 +325,6 @@
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__15</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__16</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__17</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
@@ -334,97 +352,103 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
 </sst>
 </file>
@@ -782,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,22 +843,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D2">
-        <v>0.04408554944990425</v>
+        <v>0.03341953342482878</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F2">
-        <v>0.01756198347107438</v>
+        <v>0.01950718685831622</v>
       </c>
       <c r="G2">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H2">
-        <v>0.0005279153348018359</v>
+        <v>0.000469110706011612</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -845,22 +869,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="D3">
-        <v>0.04562040779562159</v>
+        <v>0.0333355817642035</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F3">
-        <v>0.01916167664670659</v>
+        <v>0.02125147579693034</v>
       </c>
       <c r="G3">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H3">
-        <v>0.002127608510434042</v>
+        <v>0.002213399644625733</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -871,19 +895,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H4">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -894,19 +918,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H5">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -920,16 +944,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H6">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -943,16 +967,16 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H7">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -966,16 +990,16 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H8">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -986,19 +1010,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H9">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1009,19 +1033,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H10">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1032,19 +1056,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>105</v>
+        <v>444</v>
+      </c>
+      <c r="D11">
+        <v>0.02769162711130001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.02477477477477477</v>
       </c>
       <c r="G11">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H11">
-        <v>-0.01703406813627254</v>
+        <v>0.005736698622470164</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1055,22 +1082,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>427</v>
+        <v>310</v>
       </c>
       <c r="D12">
-        <v>0.01027257278538628</v>
+        <v>0.008318318590356675</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F12">
-        <v>0.0234192037470726</v>
+        <v>0.02258064516129032</v>
       </c>
       <c r="G12">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H12">
-        <v>0.006385135610800056</v>
+        <v>0.00354256900898571</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1081,22 +1108,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="D13">
-        <v>0.02374668118487686</v>
+        <v>0.01504163067460458</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F13">
-        <v>0.02033898305084746</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="G13">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H13">
-        <v>0.003304914914574911</v>
+        <v>0.005714399095220143</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1107,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D14">
-        <v>0.03490217655836229</v>
+        <v>-0.007445983869636272</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F14">
-        <v>0.01714285714285714</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G14">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H14">
-        <v>0.0001087890065845989</v>
+        <v>0.007277713321379598</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1133,19 +1160,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>130</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="D15">
+        <v>-0.008424030961814797</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
       </c>
       <c r="F15">
-        <v>0.01538461538461539</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G15">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H15">
-        <v>-0.001649452751657159</v>
+        <v>0.00137008711300151</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1156,22 +1186,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>0.02777669117180524</v>
+        <v>0.00101139906718586</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F16">
-        <v>0.02564102564102564</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="G16">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H16">
-        <v>0.008606957504753095</v>
+        <v>0.01037368855357774</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1182,22 +1212,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>0.04552751159284695</v>
+        <v>-0.03183319307457232</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F17">
-        <v>0.03846153846153846</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G17">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H17">
-        <v>0.02142747032526592</v>
+        <v>0.004217737801183761</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1210,20 +1240,17 @@
       <c r="C18">
         <v>26</v>
       </c>
-      <c r="D18">
-        <v>0.07962581639335066</v>
-      </c>
-      <c r="E18" t="s">
-        <v>113</v>
+      <c r="D18" t="s">
+        <v>111</v>
       </c>
       <c r="F18">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H18">
-        <v>0.05988900878680438</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1234,19 +1261,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>105</v>
+        <v>654</v>
+      </c>
+      <c r="D19">
+        <v>0.02166423641960241</v>
+      </c>
+      <c r="E19" t="s">
+        <v>121</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="G19">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H19">
-        <v>-0.01703406813627254</v>
+        <v>0.003897703664209152</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1257,19 +1287,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>650</v>
-      </c>
-      <c r="D20" t="s">
-        <v>105</v>
+        <v>527</v>
+      </c>
+      <c r="D20">
+        <v>-0.02379733429853312</v>
+      </c>
+      <c r="E20" t="s">
+        <v>122</v>
       </c>
       <c r="F20">
-        <v>0.01384615384615385</v>
+        <v>0.02087286527514232</v>
       </c>
       <c r="G20">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H20">
-        <v>-0.003187914290118698</v>
+        <v>0.001834789122837705</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1280,19 +1313,19 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>522</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F21">
-        <v>0.01532567049808429</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H21">
-        <v>-0.001708397638188254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1303,19 +1336,19 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H22">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1326,19 +1359,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H23">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1349,19 +1382,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H24">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1372,19 +1405,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H25">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1395,19 +1428,19 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H26">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1421,16 +1454,16 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H27">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1441,19 +1474,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H28">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1464,19 +1497,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H29">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1490,16 +1523,16 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H30">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1510,19 +1543,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
+        <v>415</v>
+      </c>
+      <c r="D31">
+        <v>-0.006133408271506955</v>
+      </c>
+      <c r="E31" t="s">
+        <v>123</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.02168674698795181</v>
       </c>
       <c r="G31">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H31">
-        <v>-0.01703406813627254</v>
+        <v>0.002648670835647196</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1533,19 +1569,19 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>411</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F32">
-        <v>0.0145985401459854</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H32">
-        <v>-0.002435527990287144</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1556,19 +1592,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H33">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1582,16 +1618,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H34">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1602,19 +1638,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F35">
-        <v>0.0165016501650165</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H35">
-        <v>-0.0005324179712560446</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1625,19 +1661,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F36">
-        <v>0.00966183574879227</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H36">
-        <v>-0.007372232387480275</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1648,19 +1684,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>0.01226993865030675</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H37">
-        <v>-0.004764129485965796</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1671,19 +1707,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F38">
-        <v>0.008928571428571428</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H38">
-        <v>-0.008105496707701117</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1694,19 +1730,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F39">
-        <v>0.01123595505617977</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H39">
-        <v>-0.00579811308009277</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1717,19 +1753,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H40">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1740,19 +1776,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H41">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1763,22 +1799,22 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>996</v>
+        <v>296</v>
       </c>
       <c r="D42">
-        <v>0.04306208369476413</v>
+        <v>-0.008110970609930762</v>
       </c>
       <c r="E42" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F42">
-        <v>0.01706827309236948</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="G42">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H42">
-        <v>3.420495609693375E-05</v>
+        <v>0.001232194117965661</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1789,19 +1825,19 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>991</v>
+        <v>215</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F43">
-        <v>0.01614530776992936</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="G43">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H43">
-        <v>-0.0008887603663431803</v>
+        <v>-0.005084587780211588</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1812,19 +1848,19 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="G44">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H44">
-        <v>-0.01703406813627254</v>
+        <v>-0.01301397976676244</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1835,19 +1871,19 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="G45">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H45">
-        <v>-0.01703406813627254</v>
+        <v>-0.0109079948514916</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1858,19 +1894,19 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="G46">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H46">
-        <v>-0.01703406813627254</v>
+        <v>-0.008728797801789147</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1881,19 +1917,19 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>649</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F47">
-        <v>0.01540832049306626</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G47">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H47">
-        <v>-0.001625747643206289</v>
+        <v>-0.005524562638791097</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1904,22 +1940,19 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>475</v>
-      </c>
-      <c r="D48">
-        <v>0.03725833836697628</v>
-      </c>
-      <c r="E48" t="s">
-        <v>115</v>
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>111</v>
       </c>
       <c r="F48">
-        <v>0.01894736842105263</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H48">
-        <v>0.001913300284780088</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1930,19 +1963,22 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>307</v>
-      </c>
-      <c r="D49" t="s">
-        <v>105</v>
+        <v>996</v>
+      </c>
+      <c r="D49">
+        <v>0.03235398782748288</v>
+      </c>
+      <c r="E49" t="s">
+        <v>125</v>
       </c>
       <c r="F49">
-        <v>0.009771986970684038</v>
+        <v>0.01907630522088354</v>
       </c>
       <c r="G49">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H49">
-        <v>-0.007262081165588507</v>
+        <v>3.822906857892452E-05</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1953,19 +1989,22 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>233</v>
-      </c>
-      <c r="D50" t="s">
-        <v>105</v>
+        <v>988</v>
+      </c>
+      <c r="D50">
+        <v>0.03265550375438013</v>
+      </c>
+      <c r="E50" t="s">
+        <v>126</v>
       </c>
       <c r="F50">
-        <v>0.008583690987124463</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G50">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H50">
-        <v>-0.008450377149148081</v>
+        <v>0.0001926930784646209</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1976,19 +2015,19 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F51">
-        <v>0.006493506493506494</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H51">
-        <v>-0.01054056164276605</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1999,19 +2038,19 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F52">
-        <v>0.009900990099009901</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H52">
-        <v>-0.007133078037262644</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2022,19 +2061,19 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H53">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2045,19 +2084,19 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H54">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2068,22 +2107,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>216</v>
-      </c>
-      <c r="D55">
-        <v>0.01091788211704102</v>
-      </c>
-      <c r="E55" t="s">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
       </c>
       <c r="F55">
-        <v>0.03240740740740741</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H55">
-        <v>0.01537333927113486</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2094,22 +2130,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>171</v>
-      </c>
-      <c r="D56">
-        <v>0.01427643048731663</v>
-      </c>
-      <c r="E56" t="s">
-        <v>117</v>
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
       </c>
       <c r="F56">
-        <v>0.02923976608187134</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H56">
-        <v>0.0122056979455988</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2120,19 +2153,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H57">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2143,19 +2176,22 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>105</v>
+        <v>636</v>
+      </c>
+      <c r="D58">
+        <v>0.004990551313490459</v>
+      </c>
+      <c r="E58" t="s">
+        <v>127</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.0220125786163522</v>
       </c>
       <c r="G58">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H58">
-        <v>-0.01703406813627254</v>
+        <v>0.002974502464047589</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2166,19 +2202,22 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>105</v>
+        <v>486</v>
+      </c>
+      <c r="D59">
+        <v>-0.002419928363470088</v>
+      </c>
+      <c r="E59" t="s">
+        <v>128</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="G59">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H59">
-        <v>-0.01703406813627254</v>
+        <v>0.001538055534938187</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2189,19 +2228,19 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.015625</v>
       </c>
       <c r="G60">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H60">
-        <v>-0.01703406813627254</v>
+        <v>-0.003413076152304611</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2212,19 +2251,19 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="G61">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H61">
-        <v>-0.01703406813627254</v>
+        <v>-0.006326211745524949</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2235,19 +2274,19 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="G62">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H62">
-        <v>-0.01703406813627254</v>
+        <v>-0.007062028248112993</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2260,20 +2299,17 @@
       <c r="C63">
         <v>110</v>
       </c>
-      <c r="D63">
-        <v>0.01929022420506929</v>
-      </c>
-      <c r="E63" t="s">
-        <v>118</v>
+      <c r="D63" t="s">
+        <v>111</v>
       </c>
       <c r="F63">
-        <v>0.01818181818181818</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H63">
-        <v>0.001147750045545636</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2284,22 +2320,19 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>93</v>
-      </c>
-      <c r="D64">
-        <v>0.02346385321500255</v>
-      </c>
-      <c r="E64" t="s">
-        <v>119</v>
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>111</v>
       </c>
       <c r="F64">
-        <v>0.02150537634408602</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H64">
-        <v>0.004471308207813478</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2310,22 +2343,19 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>69</v>
-      </c>
-      <c r="D65">
-        <v>0.04591952151661922</v>
-      </c>
-      <c r="E65" t="s">
-        <v>120</v>
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
       </c>
       <c r="F65">
-        <v>0.02898550724637681</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H65">
-        <v>0.01195143911010427</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2336,22 +2366,22 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="D66">
-        <v>0.05609362377821635</v>
+        <v>0.01265709530498496</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F66">
-        <v>0.03773584905660377</v>
+        <v>0.04</v>
       </c>
       <c r="G66">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H66">
-        <v>0.02070178092033123</v>
+        <v>0.02096192384769539</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2362,22 +2392,22 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D67">
-        <v>-0.04144498287491229</v>
+        <v>0.01078634415682306</v>
       </c>
       <c r="E67" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F67">
-        <v>0.03125</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="G67">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H67">
-        <v>0.01421593186372746</v>
+        <v>0.02590574407241449</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2388,22 +2418,19 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>25</v>
-      </c>
-      <c r="D68">
-        <v>-0.03290503123506838</v>
-      </c>
-      <c r="E68" t="s">
-        <v>123</v>
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>111</v>
       </c>
       <c r="F68">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H68">
-        <v>0.02296593186372746</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2414,19 +2441,19 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H69">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2437,19 +2464,19 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H70">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2460,19 +2487,19 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>998</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F71">
-        <v>0.01703406813627254</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2483,19 +2510,19 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>708</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F72">
-        <v>0.01553672316384181</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H72">
-        <v>-0.001497344972430736</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2506,19 +2533,19 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H73">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2529,22 +2556,19 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>121</v>
-      </c>
-      <c r="D74">
-        <v>-0.03189583207190516</v>
-      </c>
-      <c r="E74" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
       </c>
       <c r="F74">
-        <v>0.02479338842975207</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H74">
-        <v>0.007759320293479522</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2555,22 +2579,22 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D75">
-        <v>-0.02738814299082364</v>
+        <v>0.008710744865002971</v>
       </c>
       <c r="E75" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F75">
-        <v>0.03703703703703703</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="G75">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H75">
-        <v>0.02000296890076449</v>
+        <v>0.007048880369434518</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2581,22 +2605,22 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D76">
-        <v>-0.02842259669873982</v>
+        <v>0.02362917248933215</v>
       </c>
       <c r="E76" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F76">
-        <v>0.03225806451612903</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G76">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H76">
-        <v>0.01522399637985649</v>
+        <v>0.01544468246838504</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2607,22 +2631,19 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>21</v>
-      </c>
-      <c r="D77">
-        <v>-0.02280632216995798</v>
-      </c>
-      <c r="E77" t="s">
-        <v>127</v>
+        <v>56</v>
+      </c>
+      <c r="D77" t="s">
+        <v>111</v>
       </c>
       <c r="F77">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H77">
-        <v>0.03058497948277507</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2633,22 +2654,19 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>11</v>
-      </c>
-      <c r="D78">
-        <v>0.00490002133938896</v>
-      </c>
-      <c r="E78" t="s">
-        <v>128</v>
+        <v>45</v>
+      </c>
+      <c r="D78" t="s">
+        <v>111</v>
       </c>
       <c r="F78">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H78">
-        <v>0.07387502277281836</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2659,19 +2677,19 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H79">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2682,19 +2700,19 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H80">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2705,19 +2723,19 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H81">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2728,22 +2746,19 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>457</v>
-      </c>
-      <c r="D82">
-        <v>0.04170557158558757</v>
-      </c>
-      <c r="E82" t="s">
-        <v>129</v>
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>111</v>
       </c>
       <c r="F82">
-        <v>0.02407002188183808</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H82">
-        <v>0.00703595374556553</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2754,22 +2769,22 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>180</v>
+        <v>997</v>
       </c>
       <c r="D83">
-        <v>0.03408262952771956</v>
+        <v>0.03229563801412894</v>
       </c>
       <c r="E83" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F83">
-        <v>0.02777777777777778</v>
+        <v>0.01905717151454363</v>
       </c>
       <c r="G83">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H83">
-        <v>0.01074370964150523</v>
+        <v>1.909536223902025E-05</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2780,19 +2795,19 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>704</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="G84">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H84">
-        <v>-0.01703406813627254</v>
+        <v>-0.001992621606850067</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2803,19 +2818,22 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>105</v>
+        <v>119</v>
+      </c>
+      <c r="D85">
+        <v>0.01319611118116527</v>
+      </c>
+      <c r="E85" t="s">
+        <v>134</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.04201680672268908</v>
       </c>
       <c r="G85">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H85">
-        <v>-0.01703406813627254</v>
+        <v>0.02297873057038447</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2826,19 +2844,22 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>105</v>
+        <v>57</v>
+      </c>
+      <c r="D86">
+        <v>0.00964131459121912</v>
+      </c>
+      <c r="E86" t="s">
+        <v>135</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="G86">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H86">
-        <v>-0.01703406813627254</v>
+        <v>0.016049643145941</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2849,19 +2870,22 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>105</v>
+        <v>26</v>
+      </c>
+      <c r="D87">
+        <v>0.03815450461780614</v>
+      </c>
+      <c r="E87" t="s">
+        <v>136</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G87">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H87">
-        <v>-0.01703406813627254</v>
+        <v>0.05788500077077231</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2872,19 +2896,22 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>105</v>
+        <v>18</v>
+      </c>
+      <c r="D88">
+        <v>0.004300054400250187</v>
+      </c>
+      <c r="E88" t="s">
+        <v>137</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G88">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H88">
-        <v>-0.01703406813627254</v>
+        <v>0.03651747940325094</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2895,19 +2922,22 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>105</v>
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>0.0280600923862946</v>
+      </c>
+      <c r="E89" t="s">
+        <v>138</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G89">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H89">
-        <v>-0.01703406813627254</v>
+        <v>0.0718710147567863</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2918,19 +2948,19 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H90">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2941,19 +2971,19 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H91">
-        <v>-0.01703406813627254</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2964,22 +2994,19 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>94</v>
-      </c>
-      <c r="D92">
-        <v>0.01540965922535795</v>
-      </c>
-      <c r="E92" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>111</v>
       </c>
       <c r="F92">
-        <v>0.03191489361702127</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H92">
-        <v>0.01488082548074873</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2990,22 +3017,22 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>55</v>
+        <v>466</v>
       </c>
       <c r="D93">
-        <v>0.03725601218906493</v>
+        <v>0.02200174040311373</v>
       </c>
       <c r="E93" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F93">
-        <v>0.05454545454545454</v>
+        <v>0.02145922746781116</v>
       </c>
       <c r="G93">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H93">
-        <v>0.037511386409182</v>
+        <v>0.002421151315506548</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3016,22 +3043,22 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="D94">
-        <v>0.01903548908097714</v>
+        <v>0.02260515275846131</v>
       </c>
       <c r="E94" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F94">
-        <v>0.03333333333333333</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="G94">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H94">
-        <v>0.01629926519706079</v>
+        <v>0.008135836891173649</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3042,22 +3069,19 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>21</v>
-      </c>
-      <c r="D95">
-        <v>0.03387677045391965</v>
-      </c>
-      <c r="E95" t="s">
-        <v>134</v>
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>111</v>
       </c>
       <c r="F95">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H95">
-        <v>0.03058497948277507</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3068,22 +3092,19 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>7</v>
-      </c>
-      <c r="D96">
-        <v>0.1099054098408392</v>
-      </c>
-      <c r="E96" t="s">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>111</v>
       </c>
       <c r="F96">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H96">
-        <v>0.1258230747208703</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3094,22 +3115,19 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>5</v>
-      </c>
-      <c r="D97">
-        <v>0.1503246920994873</v>
-      </c>
-      <c r="E97" t="s">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>111</v>
       </c>
       <c r="F97">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H97">
-        <v>0.1829659318637275</v>
+        <v>-0.01903807615230461</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3120,19 +3138,22 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s">
-        <v>105</v>
+        <v>85</v>
+      </c>
+      <c r="D98">
+        <v>-0.004487847987018602</v>
+      </c>
+      <c r="E98" t="s">
+        <v>141</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="G98">
-        <v>0.01703406813627254</v>
+        <v>0.01903807615230461</v>
       </c>
       <c r="H98">
-        <v>-0.01703406813627254</v>
+        <v>0.01625604149475421</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3143,19 +3164,166 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99" t="s">
+        <v>45</v>
+      </c>
+      <c r="D99">
+        <v>-0.006391067306475404</v>
+      </c>
+      <c r="E99" t="s">
+        <v>142</v>
+      </c>
+      <c r="F99">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="G99">
+        <v>0.01903807615230461</v>
+      </c>
+      <c r="H99">
+        <v>0.003184146069917612</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0.01703406813627254</v>
-      </c>
-      <c r="H99">
-        <v>-0.01703406813627254</v>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>0.01309854085117899</v>
+      </c>
+      <c r="E100" t="s">
+        <v>143</v>
+      </c>
+      <c r="F100">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="G100">
+        <v>0.01903807615230461</v>
+      </c>
+      <c r="H100">
+        <v>0.02444018471726061</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>17</v>
+      </c>
+      <c r="D101">
+        <v>0.02540277962406778</v>
+      </c>
+      <c r="E101" t="s">
+        <v>144</v>
+      </c>
+      <c r="F101">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="G101">
+        <v>0.01903807615230461</v>
+      </c>
+      <c r="H101">
+        <v>0.03978545325946009</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0.01903807615230461</v>
+      </c>
+      <c r="H102">
+        <v>-0.01903807615230461</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0.01903807615230461</v>
+      </c>
+      <c r="H103">
+        <v>-0.01903807615230461</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0.01903807615230461</v>
+      </c>
+      <c r="H104">
+        <v>-0.01903807615230461</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0.01903807615230461</v>
+      </c>
+      <c r="H105">
+        <v>-0.01903807615230461</v>
       </c>
     </row>
   </sheetData>
